--- a/resources/documentation/ASTRAIOSGanttPlanPSR2.xlsx
+++ b/resources/documentation/ASTRAIOSGanttPlanPSR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianwa\Documents\GitHub\ASTRAIOS\resources\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB84633-2297-4042-A91B-A1CE8F74B4D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30266E6D-FD6D-42D1-945A-9319A2503A6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>Break</t>
   </si>
@@ -215,15 +215,6 @@
   </si>
   <si>
     <t>Build Prototype V2</t>
-  </si>
-  <si>
-    <t>Video Log 4</t>
-  </si>
-  <si>
-    <t>Video Log 5</t>
-  </si>
-  <si>
-    <t>Video Log 6</t>
   </si>
   <si>
     <t>Mission Hike</t>
@@ -1984,7 +1975,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,14 +2028,14 @@
       </c>
       <c r="F3" s="75">
         <f>SUM(F5:F33)</f>
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="83" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="196">
         <f>SUM(I5:I33)</f>
-        <v>46.5</v>
+        <v>40.5</v>
       </c>
       <c r="K3" s="92" t="s">
         <v>17</v>
@@ -2058,14 +2049,14 @@
       </c>
       <c r="O3" s="97">
         <f>SUM(O5:O33)</f>
-        <v>41.5</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="102" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="103">
         <f>SUM(R5:R32)</f>
-        <v>153.5</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2197,7 +2188,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="80"/>
@@ -2214,7 +2205,7 @@
       </c>
       <c r="R10" s="149">
         <f>SUM(F10+F11+I10+I11+L10+L11+O10+O11)</f>
-        <v>14</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2226,14 +2217,14 @@
         <v>48</v>
       </c>
       <c r="F11" s="67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="78" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="88"/>
@@ -2243,7 +2234,7 @@
         <v>43</v>
       </c>
       <c r="O11" s="99">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="115"/>
@@ -2260,14 +2251,14 @@
         <v>49</v>
       </c>
       <c r="F12" s="66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="80" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="86"/>
@@ -2281,7 +2272,7 @@
       </c>
       <c r="R12" s="104">
         <f>SUM(F12+F13+I12+I13+L12+L13+O12+O13)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2298,14 +2289,14 @@
         <v>46</v>
       </c>
       <c r="I13" s="79">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="88"/>
       <c r="L13" s="89"/>
       <c r="M13" s="16"/>
       <c r="N13" s="101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13" s="98">
         <v>1.5</v>
@@ -2328,25 +2319,21 @@
         <v>50</v>
       </c>
       <c r="I14" s="79">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J14" s="193"/>
       <c r="K14" s="86"/>
       <c r="L14" s="87"/>
       <c r="M14" s="193"/>
-      <c r="N14" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="99">
-        <v>1</v>
-      </c>
+      <c r="N14" s="100"/>
+      <c r="O14" s="99"/>
       <c r="P14" s="193"/>
       <c r="Q14" s="114" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="104">
         <f>SUM(F14+F15+I14+I15+L14+L15+O14+O15)</f>
-        <v>9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2365,18 +2352,18 @@
         <v>51</v>
       </c>
       <c r="I15" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="188"/>
       <c r="K15" s="86" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L15" s="87">
         <v>2</v>
       </c>
       <c r="M15" s="188"/>
       <c r="N15" s="101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O15" s="98">
         <v>1.5</v>
@@ -2414,7 +2401,7 @@
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="99">
         <v>1</v>
@@ -2451,7 +2438,7 @@
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O17" s="98">
         <v>1.5</v>
@@ -2471,7 +2458,7 @@
       <c r="F18" s="66"/>
       <c r="G18" s="34"/>
       <c r="H18" s="195" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I18" s="77">
         <v>3</v>
@@ -2484,9 +2471,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="30"/>
-      <c r="N18" s="197" t="s">
-        <v>61</v>
-      </c>
+      <c r="N18" s="197"/>
       <c r="O18" s="99">
         <v>1</v>
       </c>
@@ -2516,7 +2501,7 @@
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="78" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I19" s="79">
         <v>3</v>
@@ -2530,7 +2515,7 @@
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O19" s="98">
         <v>1.5</v>
@@ -2564,7 +2549,7 @@
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="128" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O20" s="129">
         <v>1</v>
@@ -2601,7 +2586,7 @@
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="98">
         <v>1.5</v>
@@ -2621,7 +2606,7 @@
       <c r="F22" s="66"/>
       <c r="G22" s="17"/>
       <c r="H22" s="80" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I22" s="77">
         <v>3</v>
@@ -2634,9 +2619,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="17"/>
-      <c r="N22" s="100" t="s">
-        <v>63</v>
-      </c>
+      <c r="N22" s="100"/>
       <c r="O22" s="99">
         <v>1</v>
       </c>
@@ -2662,7 +2645,7 @@
       <c r="F23" s="68"/>
       <c r="G23" s="11"/>
       <c r="H23" s="78" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I23" s="79">
         <v>3</v>
@@ -2676,7 +2659,7 @@
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O23" s="98">
         <v>1.5</v>
@@ -2693,28 +2676,28 @@
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
       <c r="E24" s="177" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F24" s="66">
         <v>0.5</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="80" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="77">
         <v>3</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L24" s="87">
         <v>5</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="100" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O24" s="99">
         <v>5</v>
@@ -2740,14 +2723,14 @@
       <c r="I25" s="79"/>
       <c r="J25" s="18"/>
       <c r="K25" s="88" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L25" s="89">
         <v>5</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O25" s="98">
         <v>3</v>
@@ -2770,14 +2753,14 @@
       <c r="I26" s="77"/>
       <c r="J26" s="18"/>
       <c r="K26" s="86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L26" s="87">
         <v>5</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="100" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O26" s="99">
         <v>1</v>
@@ -2807,14 +2790,14 @@
       <c r="I27" s="125"/>
       <c r="J27" s="18"/>
       <c r="K27" s="126" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L27" s="127">
         <v>3</v>
       </c>
       <c r="M27" s="18"/>
       <c r="N27" s="101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O27" s="98">
         <v>1.5</v>
@@ -2840,7 +2823,7 @@
       <c r="L28" s="87"/>
       <c r="M28" s="41"/>
       <c r="N28" s="154" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O28" s="99">
         <v>6</v>
@@ -2869,7 +2852,7 @@
       <c r="L29" s="89"/>
       <c r="M29" s="44"/>
       <c r="N29" s="155" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O29" s="98">
         <v>5</v>
@@ -2920,7 +2903,7 @@
       <c r="L31" s="89"/>
       <c r="M31" s="44"/>
       <c r="N31" s="155" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O31" s="98">
         <v>5</v>
@@ -2975,7 +2958,7 @@
       <c r="L33" s="89"/>
       <c r="M33" s="48"/>
       <c r="N33" s="155" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O33" s="98"/>
       <c r="P33" s="47"/>

--- a/resources/documentation/ASTRAIOSGanttPlanPSR2.xlsx
+++ b/resources/documentation/ASTRAIOSGanttPlanPSR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianwa\Documents\GitHub\ASTRAIOS\resources\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30266E6D-FD6D-42D1-945A-9319A2503A6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039DDE8-57A7-4E39-B008-17D7ADCF4CC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Break</t>
   </si>
@@ -190,42 +190,15 @@
     <t>Approve Design</t>
   </si>
   <si>
-    <t>Create Shopping List /Purchase Items</t>
-  </si>
-  <si>
-    <t>Build Prototype V1</t>
-  </si>
-  <si>
     <t>Design Mission Roundel</t>
   </si>
   <si>
-    <t>Electrical Schematics</t>
-  </si>
-  <si>
-    <t>Test Prototype V1</t>
-  </si>
-  <si>
-    <t>Prototyping/CAD V2</t>
-  </si>
-  <si>
-    <t>Electrical V2</t>
-  </si>
-  <si>
-    <t>Re-evalutate Shopping List/Purchase</t>
-  </si>
-  <si>
-    <t>Build Prototype V2</t>
-  </si>
-  <si>
     <t>Mission Hike</t>
   </si>
   <si>
     <t>Programming</t>
   </si>
   <si>
-    <t>Build V2</t>
-  </si>
-  <si>
     <t>Post Mission Data</t>
   </si>
   <si>
@@ -238,15 +211,9 @@
     <t>Plan Mission Hike</t>
   </si>
   <si>
-    <t>Electrical &amp; Programming V1</t>
-  </si>
-  <si>
     <t>Test Build V2</t>
   </si>
   <si>
-    <t>Video Log 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finalize </t>
   </si>
   <si>
@@ -257,6 +224,30 @@
   </si>
   <si>
     <t>Electrical Research</t>
+  </si>
+  <si>
+    <t>Purchase Items</t>
+  </si>
+  <si>
+    <t>Flight Controller Familiarization</t>
+  </si>
+  <si>
+    <t>PICAXE Basic Code Review</t>
+  </si>
+  <si>
+    <t>Create Shopping List</t>
+  </si>
+  <si>
+    <t>Design ASTRAIOS V2</t>
+  </si>
+  <si>
+    <t>Flight Controller Mount CAD</t>
+  </si>
+  <si>
+    <t>Build ASTRAIOS V2</t>
+  </si>
+  <si>
+    <t>Refine V2</t>
   </si>
 </sst>
 </file>
@@ -1974,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,28 +2026,28 @@
       </c>
       <c r="I3" s="196">
         <f>SUM(I5:I33)</f>
-        <v>40.5</v>
+        <v>37</v>
       </c>
       <c r="K3" s="92" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="93">
         <f>SUM(L5:L33)</f>
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N3" s="96" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="97">
         <f>SUM(O5:O33)</f>
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="Q3" s="102" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="103">
         <f>SUM(R5:R32)</f>
-        <v>140.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2272,7 +2263,7 @@
       </c>
       <c r="R12" s="104">
         <f>SUM(F12+F13+I12+I13+L12+L13+O12+O13)</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2296,10 +2287,10 @@
       <c r="L13" s="89"/>
       <c r="M13" s="16"/>
       <c r="N13" s="101" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O13" s="98">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="115"/>
@@ -2333,7 +2324,7 @@
       </c>
       <c r="R14" s="104">
         <f>SUM(F14+F15+I14+I15+L14+L15+O14+O15)</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2345,8 +2336,12 @@
         <v>43517</v>
       </c>
       <c r="D15" s="188"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="67">
+        <v>1</v>
+      </c>
       <c r="G15" s="188"/>
       <c r="H15" s="78" t="s">
         <v>51</v>
@@ -2356,17 +2351,17 @@
       </c>
       <c r="J15" s="188"/>
       <c r="K15" s="86" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L15" s="87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="188"/>
       <c r="N15" s="101" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O15" s="98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P15" s="188"/>
       <c r="Q15" s="115"/>
@@ -2380,39 +2375,31 @@
       <c r="C16" s="31"/>
       <c r="D16" s="34"/>
       <c r="E16" s="62" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F16" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="80" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I16" s="77">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J16" s="34"/>
-      <c r="K16" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="87">
-        <v>5</v>
-      </c>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="99">
-        <v>1</v>
-      </c>
+      <c r="N16" s="100"/>
+      <c r="O16" s="99"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="116" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="106">
         <f>SUM(F16+F17+I16+I17+L16+L17+O16+O17)</f>
-        <v>22</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2424,24 +2411,20 @@
       <c r="F17" s="67"/>
       <c r="G17" s="34"/>
       <c r="H17" s="78" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I17" s="79">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J17" s="34"/>
-      <c r="K17" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="89">
-        <v>5</v>
-      </c>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="30"/>
       <c r="N17" s="101" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O17" s="98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P17" s="31"/>
       <c r="Q17" s="117"/>
@@ -2461,27 +2444,21 @@
         <v>68</v>
       </c>
       <c r="I18" s="77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" s="34"/>
-      <c r="K18" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="87">
-        <v>5</v>
-      </c>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="30"/>
       <c r="N18" s="197"/>
-      <c r="O18" s="99">
-        <v>1</v>
-      </c>
+      <c r="O18" s="99"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="116" t="s">
         <v>22</v>
       </c>
       <c r="R18" s="106">
         <f>SUM(F18+F19+I18+I19+L18+L19+O18+O19)</f>
-        <v>19.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2493,63 +2470,55 @@
         <v>35</v>
       </c>
       <c r="D19" s="52"/>
-      <c r="E19" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="67">
-        <v>1</v>
-      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="52"/>
       <c r="H19" s="78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I19" s="79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" s="52"/>
-      <c r="K19" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="89">
-        <v>5</v>
-      </c>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="7"/>
       <c r="N19" s="101" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O19" s="98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P19" s="33"/>
       <c r="Q19" s="117"/>
       <c r="R19" s="107"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>5</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="66"/>
+      <c r="E20" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="66">
+        <v>1</v>
+      </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="77">
-        <v>3</v>
+      <c r="H20" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="79">
+        <v>2.5</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="87">
-        <v>3</v>
-      </c>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="17"/>
       <c r="N20" s="128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O20" s="129">
         <v>1</v>
@@ -2560,7 +2529,7 @@
       </c>
       <c r="R20" s="108">
         <f>SUM(F20+F21+I20+I21+L20+L21+O20+O21)</f>
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2572,24 +2541,24 @@
       <c r="F21" s="67"/>
       <c r="G21" s="17"/>
       <c r="H21" s="78" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I21" s="79">
         <v>3</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="88" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L21" s="89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="101" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O21" s="98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="119"/>
@@ -2606,17 +2575,17 @@
       <c r="F22" s="66"/>
       <c r="G22" s="17"/>
       <c r="H22" s="80" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I22" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="86" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L22" s="87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" s="17"/>
       <c r="N22" s="100"/>
@@ -2629,7 +2598,7 @@
       </c>
       <c r="R22" s="108">
         <f>SUM(F22+F23+I22+I23+L22+L23+O22+O23)</f>
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2645,21 +2614,21 @@
       <c r="F23" s="68"/>
       <c r="G23" s="11"/>
       <c r="H23" s="78" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I23" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="88" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L23" s="89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="101" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O23" s="98">
         <v>1.5</v>
@@ -2676,28 +2645,28 @@
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
       <c r="E24" s="177" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F24" s="66">
         <v>0.5</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="80" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I24" s="77">
         <v>3</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="86" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L24" s="87">
         <v>5</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="100" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O24" s="99">
         <v>5</v>
@@ -2723,14 +2692,14 @@
       <c r="I25" s="79"/>
       <c r="J25" s="18"/>
       <c r="K25" s="88" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L25" s="89">
         <v>5</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="101" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O25" s="98">
         <v>3</v>
@@ -2753,14 +2722,14 @@
       <c r="I26" s="77"/>
       <c r="J26" s="18"/>
       <c r="K26" s="86" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L26" s="87">
         <v>5</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="100" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O26" s="99">
         <v>1</v>
@@ -2790,14 +2759,14 @@
       <c r="I27" s="125"/>
       <c r="J27" s="18"/>
       <c r="K27" s="126" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L27" s="127">
         <v>3</v>
       </c>
       <c r="M27" s="18"/>
       <c r="N27" s="101" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O27" s="98">
         <v>1.5</v>
@@ -2823,7 +2792,7 @@
       <c r="L28" s="87"/>
       <c r="M28" s="41"/>
       <c r="N28" s="154" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O28" s="99">
         <v>6</v>
@@ -2852,7 +2821,7 @@
       <c r="L29" s="89"/>
       <c r="M29" s="44"/>
       <c r="N29" s="155" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O29" s="98">
         <v>5</v>
@@ -2903,7 +2872,7 @@
       <c r="L31" s="89"/>
       <c r="M31" s="44"/>
       <c r="N31" s="155" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="O31" s="98">
         <v>5</v>
@@ -2958,7 +2927,7 @@
       <c r="L33" s="89"/>
       <c r="M33" s="48"/>
       <c r="N33" s="155" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O33" s="98"/>
       <c r="P33" s="47"/>
